--- a/Tests/Validation/Ryegrass/Kyabram9597.xlsx
+++ b/Tests/Validation/Ryegrass/Kyabram9597.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jessica\GIT\ApsimX\ApsimX\Tests\Validation\Ryegrass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D65F2B0-A86D-4DA8-8AB0-CAA102E05643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFD6A76-491F-45FA-8A97-7B5C1EF14AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-3975" windowWidth="38640" windowHeight="21120" xr2:uid="{93A704F2-5651-4647-8E41-489EDFBFF29B}"/>
+    <workbookView xWindow="81480" yWindow="15" windowWidth="38640" windowHeight="21120" xr2:uid="{93A704F2-5651-4647-8E41-489EDFBFF29B}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -39,15 +39,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="11">
   <si>
     <t>SimulationName</t>
   </si>
   <si>
     <t>Clock.Today</t>
-  </si>
-  <si>
-    <t>AgPRyegrass.AboveGround.Wt</t>
   </si>
   <si>
     <t>AgPRyegrass.Harvestable.Digestibility</t>
@@ -69,6 +66,12 @@
   </si>
   <si>
     <t>Kyabram9597CultivarKangarooValley</t>
+  </si>
+  <si>
+    <t>AgPRyegrass.CrudeProtein</t>
+  </si>
+  <si>
+    <t>AgPRyegrass.AboveGroundHarvestable.StructuralWt</t>
   </si>
 </sst>
 </file>
@@ -441,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94762084-4562-4CF3-B4AD-60F5B8DC8389}">
-  <dimension ref="A1:E131"/>
+  <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -454,9 +457,10 @@
     <col min="3" max="3" width="26.3046875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.3046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.07421875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,42 +468,45 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>34820</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>34851</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>34881</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>34912</v>
@@ -508,9 +515,9 @@
         <v>8.1663999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>34943</v>
@@ -524,10 +531,13 @@
       <c r="E6">
         <v>3.8577600000000004E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F6">
+        <v>0.24111000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1">
         <v>34973</v>
@@ -541,10 +551,13 @@
       <c r="E7">
         <v>3.85232E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F7">
+        <v>0.24077000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1">
         <v>35004</v>
@@ -558,10 +571,13 @@
       <c r="E8">
         <v>3.5377600000000002E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F8">
+        <v>0.22111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1">
         <v>35034</v>
@@ -575,10 +591,13 @@
       <c r="E9">
         <v>2.4688000000000002E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F9">
+        <v>0.15430000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1">
         <v>35065</v>
@@ -587,9 +606,9 @@
         <v>255.32</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1">
         <v>35096</v>
@@ -603,10 +622,13 @@
       <c r="E11">
         <v>2.36256E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F11">
+        <v>0.14765999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1">
         <v>35125</v>
@@ -617,10 +639,13 @@
       <c r="E12">
         <v>2.39312E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F12">
+        <v>0.14956999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="1">
         <v>35156</v>
@@ -634,10 +659,13 @@
       <c r="E13">
         <v>3.3857600000000002E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F13">
+        <v>0.21161000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1">
         <v>35186</v>
@@ -648,10 +676,13 @@
       <c r="E14">
         <v>2.2991999999999999E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F14">
+        <v>0.14369999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1">
         <v>35217</v>
@@ -662,10 +693,13 @@
       <c r="E15">
         <v>2.2166399999999999E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F15">
+        <v>0.13854</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1">
         <v>35247</v>
@@ -674,9 +708,9 @@
         <v>0.84025000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1">
         <v>35278</v>
@@ -685,9 +719,9 @@
         <v>0.82853999999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" s="1">
         <v>35309</v>
@@ -696,9 +730,9 @@
         <v>187.1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" s="1">
         <v>35339</v>
@@ -709,10 +743,13 @@
       <c r="E19">
         <v>2.0222400000000001E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F19">
+        <v>0.12639</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" s="1">
         <v>35370</v>
@@ -724,17 +761,17 @@
         <v>0.86075999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" s="1">
         <v>35400</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" s="1">
         <v>35431</v>
@@ -743,73 +780,73 @@
         <v>81.292000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" s="1">
         <v>35462</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" s="1">
         <v>35490</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" s="1">
         <v>35521</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" s="1">
         <v>35551</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" s="1">
         <v>35582</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" s="1">
         <v>34820</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" s="1">
         <v>34851</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" s="1">
         <v>34881</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" s="1">
         <v>34912</v>
@@ -818,9 +855,9 @@
         <v>27.773000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32" s="1">
         <v>34943</v>
@@ -834,10 +871,13 @@
       <c r="E32">
         <v>4.0300800000000005E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F32">
+        <v>0.25187999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" s="1">
         <v>34973</v>
@@ -851,10 +891,13 @@
       <c r="E33">
         <v>4.0542399999999999E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F33">
+        <v>0.25339</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34" s="1">
         <v>35004</v>
@@ -868,10 +911,13 @@
       <c r="E34">
         <v>3.5556799999999993E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F34">
+        <v>0.22222999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35" s="1">
         <v>35034</v>
@@ -885,18 +931,21 @@
       <c r="E35">
         <v>2.73616E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F35">
+        <v>0.17101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36" s="1">
         <v>35065</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37" s="1">
         <v>35096</v>
@@ -910,10 +959,13 @@
       <c r="E37">
         <v>1.8398399999999999E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F37">
+        <v>0.11498999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38" s="1">
         <v>35125</v>
@@ -924,10 +976,13 @@
       <c r="E38">
         <v>2.2921599999999997E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F38">
+        <v>0.14326</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39" s="1">
         <v>35156</v>
@@ -941,10 +996,13 @@
       <c r="E39">
         <v>3.4153600000000006E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F39">
+        <v>0.21346000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B40" s="1">
         <v>35186</v>
@@ -955,10 +1013,13 @@
       <c r="E40">
         <v>2.4953600000000003E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F40">
+        <v>0.15596000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B41" s="1">
         <v>35217</v>
@@ -969,10 +1030,13 @@
       <c r="E41">
         <v>2.4719999999999999E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F41">
+        <v>0.1545</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B42" s="1">
         <v>35247</v>
@@ -981,9 +1045,9 @@
         <v>0.86063999999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B43" s="1">
         <v>35278</v>
@@ -992,17 +1056,17 @@
         <v>0.84584000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B44" s="1">
         <v>35309</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B45" s="1">
         <v>35339</v>
@@ -1013,10 +1077,13 @@
       <c r="E45">
         <v>2.0636799999999997E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F45">
+        <v>0.12897999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B46" s="1">
         <v>35370</v>
@@ -1028,9 +1095,9 @@
         <v>0.87002999999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B47" s="1">
         <v>35400</v>
@@ -1039,81 +1106,81 @@
         <v>94.777000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B48" s="1">
         <v>35431</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B49" s="1">
         <v>35462</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B50" s="1">
         <v>35490</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B51" s="1">
         <v>35521</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B52" s="1">
         <v>35551</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B53" s="1">
         <v>35582</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B54" s="1">
         <v>34820</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B55" s="1">
         <v>34851</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B56" s="1">
         <v>34881</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B57" s="1">
         <v>34912</v>
@@ -1122,9 +1189,9 @@
         <v>70.054999999999993</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B58" s="1">
         <v>34943</v>
@@ -1138,10 +1205,13 @@
       <c r="E58">
         <v>3.9587199999999996E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F58">
+        <v>0.24742</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B59" s="1">
         <v>34973</v>
@@ -1155,10 +1225,13 @@
       <c r="E59">
         <v>3.5076799999999998E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F59">
+        <v>0.21922999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B60" s="1">
         <v>35004</v>
@@ -1172,10 +1245,13 @@
       <c r="E60">
         <v>3.80512E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F60">
+        <v>0.23782</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B61" s="1">
         <v>35034</v>
@@ -1189,10 +1265,13 @@
       <c r="E61">
         <v>2.4271999999999998E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F61">
+        <v>0.1517</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B62" s="1">
         <v>35065</v>
@@ -1201,9 +1280,9 @@
         <v>315.37</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B63" s="1">
         <v>35096</v>
@@ -1217,10 +1296,13 @@
       <c r="E63">
         <v>1.7270399999999998E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F63">
+        <v>0.10793999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B64" s="1">
         <v>35125</v>
@@ -1231,10 +1313,13 @@
       <c r="E64">
         <v>2.1139200000000004E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F64">
+        <v>0.13212000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B65" s="1">
         <v>35156</v>
@@ -1248,10 +1333,13 @@
       <c r="E65">
         <v>2.9638400000000002E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F65">
+        <v>0.18524000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B66" s="1">
         <v>35186</v>
@@ -1262,10 +1350,13 @@
       <c r="E66">
         <v>2.42992E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F66">
+        <v>0.15187</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B67" s="1">
         <v>35217</v>
@@ -1276,10 +1367,13 @@
       <c r="E67">
         <v>2.32944E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F67">
+        <v>0.14559</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B68" s="1">
         <v>35247</v>
@@ -1288,9 +1382,9 @@
         <v>0.84209999999999996</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B69" s="1">
         <v>35278</v>
@@ -1299,9 +1393,9 @@
         <v>0.82915000000000005</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B70" s="1">
         <v>35309</v>
@@ -1310,9 +1404,9 @@
         <v>173.01</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B71" s="1">
         <v>35339</v>
@@ -1323,10 +1417,13 @@
       <c r="E71">
         <v>1.9567999999999999E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F71">
+        <v>0.12229999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B72" s="1">
         <v>35370</v>
@@ -1338,17 +1435,17 @@
         <v>0.84406999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B73" s="1">
         <v>35400</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B74" s="1">
         <v>35431</v>
@@ -1357,49 +1454,49 @@
         <v>107.64000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B75" s="1">
         <v>35462</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B76" s="1">
         <v>35490</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B77" s="1">
         <v>35521</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B78" s="1">
         <v>35551</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B79" s="1">
         <v>35582</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B80" s="1">
         <v>34820</v>
@@ -1408,9 +1505,9 @@
         <v>0.88670000000000004</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B81" s="1">
         <v>34851</v>
@@ -1419,9 +1516,9 @@
         <v>0.89034000000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B82" s="1">
         <v>34881</v>
@@ -1430,9 +1527,9 @@
         <v>0.90686000000000011</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B83" s="1">
         <v>34912</v>
@@ -1441,9 +1538,9 @@
         <v>0.88239999999999996</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B84" s="1">
         <v>34943</v>
@@ -1457,10 +1554,13 @@
       <c r="E84">
         <v>3.5548799999999998E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F84">
+        <v>0.22218000000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B85" s="1">
         <v>34973</v>
@@ -1474,10 +1574,13 @@
       <c r="E85">
         <v>3.6384E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F85">
+        <v>0.22740000000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B86" s="1">
         <v>35004</v>
@@ -1491,10 +1594,13 @@
       <c r="E86">
         <v>3.8942400000000002E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F86">
+        <v>0.24339</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B87" s="1">
         <v>35034</v>
@@ -1505,18 +1611,21 @@
       <c r="E87">
         <v>2.6588800000000003E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F87">
+        <v>0.16617999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B88" s="1">
         <v>35065</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B89" s="1">
         <v>35096</v>
@@ -1527,10 +1636,13 @@
       <c r="E89">
         <v>1.5903520000000001E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F89">
+        <v>9.9396999999999999E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B90" s="1">
         <v>35125</v>
@@ -1541,10 +1653,13 @@
       <c r="E90">
         <v>1.9415999999999999E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F90">
+        <v>0.12135</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B91" s="1">
         <v>35156</v>
@@ -1555,10 +1670,13 @@
       <c r="E91">
         <v>2.8569600000000001E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F91">
+        <v>0.17856</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B92" s="1">
         <v>35186</v>
@@ -1569,10 +1687,13 @@
       <c r="E92">
         <v>2.47152E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F92">
+        <v>0.15447</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B93" s="1">
         <v>35217</v>
@@ -1583,10 +1704,13 @@
       <c r="E93">
         <v>2.5017600000000001E-2</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F93">
+        <v>0.15636000000000003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B94" s="1">
         <v>35247</v>
@@ -1595,9 +1719,9 @@
         <v>0.88288</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B95" s="1">
         <v>35278</v>
@@ -1606,9 +1730,9 @@
         <v>0.85138999999999998</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B96" s="1">
         <v>35309</v>
@@ -1617,9 +1741,9 @@
         <v>0.82574000000000003</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B97" s="1">
         <v>35339</v>
@@ -1633,10 +1757,13 @@
       <c r="E97">
         <v>1.9628800000000002E-2</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F97">
+        <v>0.12268000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B98" s="1">
         <v>35370</v>
@@ -1645,9 +1772,9 @@
         <v>0.79261999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B99" s="1">
         <v>35400</v>
@@ -1656,9 +1783,9 @@
         <v>0.75878000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B100" s="1">
         <v>35431</v>
@@ -1667,9 +1794,9 @@
         <v>0.74895999999999996</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B101" s="1">
         <v>35462</v>
@@ -1678,17 +1805,17 @@
         <v>0.73620999999999992</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B102" s="1">
         <v>35490</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B103" s="1">
         <v>35521</v>
@@ -1697,9 +1824,9 @@
         <v>0.80488000000000004</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B104" s="1">
         <v>35551</v>
@@ -1708,41 +1835,41 @@
         <v>0.79796000000000011</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B105" s="1">
         <v>35582</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B106" s="1">
         <v>34820</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B107" s="1">
         <v>34851</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B108" s="1">
         <v>34881</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B109" s="1">
         <v>34912</v>
@@ -1751,9 +1878,9 @@
         <v>106.82000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B110" s="1">
         <v>34943</v>
@@ -1767,10 +1894,13 @@
       <c r="E110">
         <v>3.8399999999999997E-2</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F110">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B111" s="1">
         <v>34973</v>
@@ -1784,10 +1914,13 @@
       <c r="E111">
         <v>3.5315199999999998E-2</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F111">
+        <v>0.22072</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B112" s="1">
         <v>35004</v>
@@ -1801,10 +1934,13 @@
       <c r="E112">
         <v>3.6743999999999999E-2</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F112">
+        <v>0.22964999999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B113" s="1">
         <v>35034</v>
@@ -1818,10 +1954,13 @@
       <c r="E113">
         <v>2.6113600000000001E-2</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F113">
+        <v>0.16321000000000002</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B114" s="1">
         <v>35065</v>
@@ -1830,9 +1969,9 @@
         <v>307.39999999999998</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B115" s="1">
         <v>35096</v>
@@ -1846,10 +1985,13 @@
       <c r="E115">
         <v>1.5131199999999999E-2</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F115">
+        <v>9.4569999999999987E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B116" s="1">
         <v>35125</v>
@@ -1860,10 +2002,13 @@
       <c r="E116">
         <v>2.1852800000000002E-2</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F116">
+        <v>0.13658000000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B117" s="1">
         <v>35156</v>
@@ -1877,10 +2022,13 @@
       <c r="E117">
         <v>3.0588800000000003E-2</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F117">
+        <v>0.19118000000000002</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B118" s="1">
         <v>35186</v>
@@ -1891,10 +2039,13 @@
       <c r="E118">
         <v>2.3051199999999997E-2</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F118">
+        <v>0.14407</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B119" s="1">
         <v>35217</v>
@@ -1905,10 +2056,13 @@
       <c r="E119">
         <v>2.50768E-2</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F119">
+        <v>0.15672999999999998</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B120" s="1">
         <v>35247</v>
@@ -1917,9 +2071,9 @@
         <v>0.84333999999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B121" s="1">
         <v>35278</v>
@@ -1928,9 +2082,9 @@
         <v>0.83162000000000003</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B122" s="1">
         <v>35309</v>
@@ -1939,9 +2093,9 @@
         <v>321.29000000000002</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B123" s="1">
         <v>35339</v>
@@ -1952,10 +2106,13 @@
       <c r="E123">
         <v>1.9924799999999999E-2</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F123">
+        <v>0.12453</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B124" s="1">
         <v>35370</v>
@@ -1967,17 +2124,17 @@
         <v>0.86385000000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B125" s="1">
         <v>35400</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B126" s="1">
         <v>35431</v>
@@ -1986,17 +2143,17 @@
         <v>86.808999999999997</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B127" s="1">
         <v>35462</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B128" s="1">
         <v>35490</v>
@@ -2004,7 +2161,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B129" s="1">
         <v>35521</v>
@@ -2012,7 +2169,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B130" s="1">
         <v>35551</v>
@@ -2020,7 +2177,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B131" s="1">
         <v>35582</v>

--- a/Tests/Validation/Ryegrass/Kyabram9597.xlsx
+++ b/Tests/Validation/Ryegrass/Kyabram9597.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jessica\GIT\ApsimX\ApsimX\Tests\Validation\Ryegrass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFD6A76-491F-45FA-8A97-7B5C1EF14AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD514016-3516-4216-9F18-6A72BD69B1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="81480" yWindow="15" windowWidth="38640" windowHeight="21120" xr2:uid="{93A704F2-5651-4647-8E41-489EDFBFF29B}"/>
+    <workbookView xWindow="45060" yWindow="-1995" windowWidth="28800" windowHeight="15150" xr2:uid="{93A704F2-5651-4647-8E41-489EDFBFF29B}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
     <t>AgPRyegrass.CrudeProtein</t>
   </si>
   <si>
-    <t>AgPRyegrass.AboveGroundHarvestable.StructuralWt</t>
+    <t>AgPRyegrass.AboveGroundHarvestable.Wt</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
   <dimension ref="A1:F131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
